--- a/PROBLEM01 CALCS.xlsx
+++ b/PROBLEM01 CALCS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\COBOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8591BE-7697-49A8-A414-FF4746524311}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D996A4-DFA3-4477-B414-9B1BC543903F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1794" windowWidth="17280" windowHeight="8994" xr2:uid="{8E131A76-39DF-4D8A-80B2-0EF45E981489}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{8E131A76-39DF-4D8A-80B2-0EF45E981489}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>PAINT-WALL</t>
   </si>
@@ -55,6 +55,120 @@
   </si>
   <si>
     <t>TOTAL-EST</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Total Estimate</t>
+  </si>
+  <si>
+    <t>Est Num</t>
+  </si>
+  <si>
+    <t>RIWU</t>
+  </si>
+  <si>
+    <t>448F</t>
+  </si>
+  <si>
+    <t>4U49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4UR </t>
+  </si>
+  <si>
+    <t>ER33</t>
+  </si>
+  <si>
+    <t>FE57</t>
+  </si>
+  <si>
+    <t>7H6G</t>
+  </si>
+  <si>
+    <t>FFFF</t>
+  </si>
+  <si>
+    <t>4G5H</t>
+  </si>
+  <si>
+    <t>6HDD</t>
+  </si>
+  <si>
+    <t>DHT6</t>
+  </si>
+  <si>
+    <t>E  E</t>
+  </si>
+  <si>
+    <t>GF R</t>
+  </si>
+  <si>
+    <t>RGG3</t>
+  </si>
+  <si>
+    <t>3  3</t>
+  </si>
+  <si>
+    <t>3GR4</t>
+  </si>
+  <si>
+    <t>34T4</t>
+  </si>
+  <si>
+    <t>66GG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G F </t>
+  </si>
+  <si>
+    <t>W44F</t>
+  </si>
+  <si>
+    <t>F444</t>
+  </si>
+  <si>
+    <t>4FFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4  4 </t>
+  </si>
+  <si>
+    <t>5G5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  RR2 </t>
+  </si>
+  <si>
+    <t>What I am testing</t>
+  </si>
+  <si>
+    <t>All 9s in calc inputs</t>
+  </si>
+  <si>
+    <t>More 9s different price</t>
+  </si>
+  <si>
+    <t>All 0s in calc inputs</t>
+  </si>
+  <si>
+    <t>Spaces in Est Num</t>
+  </si>
+  <si>
+    <t>Numbers and spaces in est num</t>
+  </si>
+  <si>
+    <t>Wall - door = 0</t>
+  </si>
+  <si>
+    <t>Here down random num/letter/spaces in est num</t>
   </si>
 </sst>
 </file>
@@ -406,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C000D1-2B16-4D4D-AE00-A432AA94FC58}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -419,11 +533,14 @@
     <col min="3" max="3" width="12.68359375" customWidth="1"/>
     <col min="4" max="4" width="16.47265625" customWidth="1"/>
     <col min="5" max="5" width="15.41796875" customWidth="1"/>
-    <col min="6" max="6" width="12.89453125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="6" max="6" width="14.68359375" customWidth="1"/>
+    <col min="7" max="7" width="14.15625" customWidth="1"/>
+    <col min="8" max="8" width="16.734375" customWidth="1"/>
+    <col min="9" max="9" width="16.20703125" customWidth="1"/>
+    <col min="10" max="10" width="44.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +565,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>9999</v>
       </c>
@@ -479,8 +602,14 @@
         <f>(F2+G2)</f>
         <v>13354.434782608696</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>9999</v>
       </c>
@@ -510,8 +639,14 @@
         <f t="shared" ref="H3:H32" si="4">(F3+G3)</f>
         <v>6545.739130434783</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0</v>
       </c>
@@ -523,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.95</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -541,8 +676,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>9956</v>
       </c>
@@ -572,8 +713,11 @@
         <f t="shared" si="4"/>
         <v>7312.0274782608703</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>90</v>
       </c>
@@ -603,8 +747,11 @@
         <f t="shared" si="4"/>
         <v>111.58982608695652</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>150</v>
       </c>
@@ -634,8 +781,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>999</v>
       </c>
@@ -665,8 +818,11 @@
         <f t="shared" si="4"/>
         <v>0.87521739130434795</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2344</v>
       </c>
@@ -696,8 +852,11 @@
         <f t="shared" si="4"/>
         <v>1938.264347826087</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1111</v>
       </c>
@@ -727,8 +886,11 @@
         <f t="shared" si="4"/>
         <v>710.95652173913038</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2222</v>
       </c>
@@ -758,8 +920,11 @@
         <f t="shared" si="4"/>
         <v>1615.1304347826085</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>200</v>
       </c>
@@ -789,8 +954,11 @@
         <f t="shared" si="4"/>
         <v>142.20000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>1999</v>
       </c>
@@ -820,8 +988,14 @@
         <f t="shared" si="4"/>
         <v>1546.8104347826084</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>2727</v>
       </c>
@@ -851,8 +1025,11 @@
         <f t="shared" si="4"/>
         <v>2298.9913043478264</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>3030</v>
       </c>
@@ -882,8 +1059,11 @@
         <f t="shared" si="4"/>
         <v>2633.478260869565</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>3535</v>
       </c>
@@ -913,8 +1093,14 @@
         <f t="shared" si="4"/>
         <v>3064.7826086956525</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>3434</v>
       </c>
@@ -944,8 +1130,11 @@
         <f t="shared" si="4"/>
         <v>2823.4539130434782</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>2345</v>
       </c>
@@ -975,8 +1164,11 @@
         <f t="shared" si="4"/>
         <v>1723.3102608695654</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1111</v>
       </c>
@@ -1006,8 +1198,11 @@
         <f t="shared" si="4"/>
         <v>710.95652173913038</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>2222</v>
       </c>
@@ -1037,8 +1232,11 @@
         <f t="shared" si="4"/>
         <v>1615.1304347826085</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>333</v>
       </c>
@@ -1068,8 +1266,11 @@
         <f t="shared" si="4"/>
         <v>298.37739130434784</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>2323</v>
       </c>
@@ -1099,8 +1300,11 @@
         <f t="shared" si="4"/>
         <v>1634.2608695652173</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>6767</v>
       </c>
@@ -1130,8 +1334,14 @@
         <f t="shared" si="4"/>
         <v>6148.2521739130443</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>7654</v>
       </c>
@@ -1161,8 +1371,11 @@
         <f t="shared" si="4"/>
         <v>4574.9686956521737</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>2323</v>
       </c>
@@ -1192,8 +1405,11 @@
         <f t="shared" si="4"/>
         <v>2079.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>1112</v>
       </c>
@@ -1223,8 +1439,11 @@
         <f t="shared" si="4"/>
         <v>711.01800000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>9876</v>
       </c>
@@ -1254,8 +1473,11 @@
         <f t="shared" si="4"/>
         <v>7027.2485217391295</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>1122</v>
       </c>
@@ -1285,8 +1507,11 @@
         <f t="shared" si="4"/>
         <v>727.69095652173905</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>8868</v>
       </c>
@@ -1316,8 +1541,11 @@
         <f t="shared" si="4"/>
         <v>9947.6695652173912</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>5464</v>
       </c>
@@ -1347,8 +1575,11 @@
         <f t="shared" si="4"/>
         <v>5894.4583478260874</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>7777</v>
       </c>
@@ -1378,8 +1609,11 @@
         <f t="shared" si="4"/>
         <v>9034.2608695652161</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>9999</v>
       </c>
@@ -1408,6 +1642,39 @@
       <c r="H32">
         <f t="shared" si="4"/>
         <v>13354.434782608696</v>
+      </c>
+      <c r="I32">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <f>+SUM(E2:E32)</f>
+        <v>963.68695652173892</v>
+      </c>
+      <c r="F33">
+        <f>SUM(F2:F32)</f>
+        <v>41495.688173913048</v>
+      </c>
+      <c r="G33">
+        <f>SUM(G2:G32)</f>
+        <v>68084.483478260881</v>
+      </c>
+      <c r="H33">
+        <f>SUM(H2:H32)</f>
+        <v>109580.17165217391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35">
+        <f>SUM(G33:H33)</f>
+        <v>177664.65513043478</v>
       </c>
     </row>
   </sheetData>
